--- a/Project1/Resources/TestData/Project1TestData.xlsx
+++ b/Project1/Resources/TestData/Project1TestData.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AE243C-3A92-48CA-A7C6-2FBC07564CB5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41D10F6-9DB5-401A-9FFF-8A6AA5935155}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Project1-master" sheetId="1" r:id="rId1"/>
+    <sheet name="Project1" sheetId="1" r:id="rId1"/>
+    <sheet name="UserDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Execute</t>
   </si>
@@ -52,10 +53,10 @@
     <t>Web Based application test</t>
   </si>
   <si>
-    <t>Windows/Desktop application test</t>
-  </si>
-  <si>
-    <t>WinAppTestCase1</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -403,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,28 +460,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB597D9-B138-4274-8781-791CE0AE64FE}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>